--- a/Hướng dẫn.xlsx
+++ b/Hướng dẫn.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.111.2\Shared\Tempbox\Users\Thai-Hoa\Research\Demo JUnit Jquery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\Idemitsu\research\Demo JUnit Jquery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E886A801-E388-4160-BA8A-023D006F0F3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BCCA3A-6E0B-4569-91E6-AF78B727057A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="3" r:id="rId1"/>
     <sheet name="Jasmine" sheetId="1" r:id="rId2"/>
     <sheet name="QUnit" sheetId="2" r:id="rId3"/>
+    <sheet name="coverage(Jasmine)" sheetId="4" r:id="rId4"/>
+    <sheet name="coverage(QUnit)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>https://www.htmlgoodies.com/beyond/javascript/js-ref/testing-dom-events-using-jquery-and-jasmine-2.0.html</t>
   </si>
@@ -72,13 +74,845 @@
   </si>
   <si>
     <t>Run Junit</t>
+  </si>
+  <si>
+    <t>1. config karma</t>
+  </si>
+  <si>
+    <t>Coverage Jasmine with karma</t>
+  </si>
+  <si>
+    <t>2. install karma</t>
+  </si>
+  <si>
+    <t>Install karma với lệnh npm install</t>
+  </si>
+  <si>
+    <t>3. Run test</t>
+  </si>
+  <si>
+    <t>4. Kiểm tra coverage</t>
+  </si>
+  <si>
+    <t>Coverage QUnit with karma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. Install and Code demo </t>
+  </si>
+  <si>
+    <t>II. Một số matcher của Jasmine</t>
+  </si>
+  <si>
+    <t>toBeChecked (): chỉ dành cho các thẻ có thuộc tính được kiểm tra</t>
+  </si>
+  <si>
+    <t>toBeDisables ():</t>
+  </si>
+  <si>
+    <t>toBeEmpty (): Kiểm tra các phần tử hoặc văn bản DOM con.</t>
+  </si>
+  <si>
+    <t>toBeF Focused ():</t>
+  </si>
+  <si>
+    <t>toBeHidden ():</t>
+  </si>
+  <si>
+    <t>toBeInDOM (): Kiểm tra xem phần tử phù hợp có được gắn vào DOM không</t>
+  </si>
+  <si>
+    <t>toBeMatchedBy (jQuerySelector): Kiểm tra xem liệu tập hợp các phần tử khớp có khớp với bộ chọn đã cho không</t>
+  </si>
+  <si>
+    <t>toBeSelected (): chỉ dành cho các thẻ có thuộc tính được chọn</t>
+  </si>
+  <si>
+    <t>toBeVisible (): Các phần tử được coi là có thể nhìn thấy nếu chúng tiêu thụ không gian trong tài liệu. Các phần tử vô hình có chiều rộng hoặc chiều cao lớn hơn 0.</t>
+  </si>
+  <si>
+    <t>toContainEuity (jQuerySelector)</t>
+  </si>
+  <si>
+    <t>toContainHtml (chuỗi)</t>
+  </si>
+  <si>
+    <t>toContainText (chuỗi)</t>
+  </si>
+  <si>
+    <t>toEqual (jQuerySelector)</t>
+  </si>
+  <si>
+    <t>toExist (): true nếu phần tử tồn tại trong hoặc ngoài dom</t>
+  </si>
+  <si>
+    <t>toHandle (tên sự kiện)</t>
+  </si>
+  <si>
+    <t>toHandleWith (eventName, eventHandler)</t>
+  </si>
+  <si>
+    <t>toHaveAttr (propertyName, propertyValue): giá trị thuộc tính là tùy chọn, nếu bỏ qua nó sẽ chỉ kiểm tra nếu thuộc tính tồn tại</t>
+  </si>
+  <si>
+    <t>toHaveBeenTriggeredOn (bộ chọn): nếu sự kiện đã được kích hoạt trên bộ chọn</t>
+  </si>
+  <si>
+    <t>toHaveBeenTriggered (): nếu sự kiện đã được kích hoạt trên bộ chọn</t>
+  </si>
+  <si>
+    <t>toHaveBeenTriggeredOnAndWith (bộ chọn, phần bổ sung): nếu sự kiện đã được kích hoạt trên bộ chọn và với phần bổ sung</t>
+  </si>
+  <si>
+    <t>toHaveBeenPreventedOn (bộ chọn): nếu sự kiện đã bị ngăn chặn trên bộ chọn</t>
+  </si>
+  <si>
+    <t>toHaveBeenPrevented (): nếu sự kiện đã được ngăn chặn trên bộ chọn</t>
+  </si>
+  <si>
+    <t>toHaveClass (tên lớp)</t>
+  </si>
+  <si>
+    <t>toHaveCss (css)</t>
+  </si>
+  <si>
+    <t>toHaveData (khóa, giá trị)</t>
+  </si>
+  <si>
+    <t>toHaveHtml (chuỗi)</t>
+  </si>
+  <si>
+    <t>toHaveId (id)</t>
+  </si>
+  <si>
+    <t>toHaveLpm (giá trị)</t>
+  </si>
+  <si>
+    <t>toHaveProp (propertyName, propertyValue): giá trị thuộc tính là tùy chọn, nếu bỏ qua nó sẽ chỉ kiểm tra nếu thuộc tính tồn tại</t>
+  </si>
+  <si>
+    <t>toHaveText (chuỗi): chấp nhận Chuỗi hoặc biểu thức chính quy</t>
+  </si>
+  <si>
+    <t>toHaveValue (value): chỉ dành cho các phần tử mà val có thể được gọi (đầu vào, textarea, v.v.)</t>
+  </si>
+  <si>
+    <t>expect($(‘&lt;input type=”checkbox” checked=”checked”/&gt;’)).toBeChecked()</t>
+  </si>
+  <si>
+    <t>expect($(‘&lt;input type=”submit” disabled=”disabled”/&gt;’)).toBeDisabled()</t>
+  </si>
+  <si>
+    <t>expect($(‘&lt;input type=”text” /&gt;’).focus()).toBeFocused()</t>
+  </si>
+  <si>
+    <t>Jasmine hỗ trợ 4 hàm before, after như sau</t>
+  </si>
+  <si>
+    <r>
+      <t>describe(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Sử dụng before và after"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>beforeEach(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Hàm này được chạy NHIỀU LẦN vào đầu mỗi test case</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>afterEach(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Hàm này được chạy NHIỀU LẦN vào cuối mỗi test case</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>beforeAll(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Hàm này được chạy MỘT LẦN duy nhất trước khi chạy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//các test case trong describe này</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>afterAll(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Hàm này được chạy MỘT LẦN duy nhất sau khi chạy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//xong các test case trong describe này</t>
+    </r>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t>describe(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Dùng spy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Hàm này được chạy đầu mỗi test case</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>person = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">eat: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(value) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>eaten = value;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Gắn spy vào để theo dõi hàm eat của object person</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>person.eat(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'banana'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Ở đây dùng thêm callThrough</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">spyOn(person, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'eat'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).and.callThrough();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>it(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Not stop execution on a function"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Spy không chặn hàm eat nữa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>expect(eaten).toBe(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'banana'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Trong Jasmine, spy được dùng để kiểm tra xem 1 hàm có được gọi hay không. Ngoài ra, nó còn có thể được dùng để làm mock object</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2B2B2B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">person, eaten = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>https://toidicodedao.com/2015/04/07/viet-unit-test-cho-javascript-voi-jasmine-phan-2/</t>
+  </si>
+  <si>
+    <t>async</t>
+  </si>
+  <si>
+    <t>deepEqual</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>trả về hàm gọi lại và tạm dừng xử lý kiểm tra cho đến khi hàm gọi lại được gọi với số lần được chỉ định.</t>
+  </si>
+  <si>
+    <t>So sánh đệ qui hoặc array</t>
+  </si>
+  <si>
+    <t>So sánh đơn giản .VD String, int… (==)</t>
+  </si>
+  <si>
+    <t>Để đảm bảo rằng số lượng xác nhận rõ ràng được chạy trong bất kỳ thử nghiệm nào, hãy sử dụng assert.Expect (number ) để đăng ký số lượng dự kiến. Nếu số lần xác nhận chạy không khớp với số lượng dự kiến, thử nghiệm sẽ thất bại.</t>
+  </si>
+  <si>
+    <t>https://api.qunitjs.com/assert/async</t>
+  </si>
+  <si>
+    <t>notDeepEqual, notEqual, notOk, notPropEqual, notStrictEqual, ok, propEqual, pushResult, rejects, step, strictEqual, throws, timeout, verifySteps … (Tham khảo https://api.qunitjs.com)</t>
+  </si>
+  <si>
+    <t>(Xem file jasmine-vs-qunit.txt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +924,63 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006699"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008200"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,9 +1007,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -143,13 +1052,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>151238</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>176183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -187,13 +1096,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>189867</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>56686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -231,13 +1140,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>169905</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>161105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -280,13 +1189,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>363051</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>146112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -324,13 +1233,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>427733</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>136617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -368,13 +1277,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>350095</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>39337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -400,6 +1309,698 @@
         <a:xfrm>
           <a:off x="1219200" y="11704320"/>
           <a:ext cx="18638095" cy="5342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124691</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>17719</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF72127-55F7-4692-B3A5-C3D160DC5963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343891" y="1246909"/>
+          <a:ext cx="17571428" cy="8555482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74743</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>162005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF7D991-9DDF-49A4-B5C2-B1776C661705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="10446327"/>
+          <a:ext cx="11657143" cy="6285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>436571</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>83428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0FB76C-AD98-4879-B324-D4DC8539F639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="18135600"/>
+          <a:ext cx="12628571" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>540647</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>114466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FA00E9-85E2-420D-81AC-963275299E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="26093057"/>
+          <a:ext cx="18219047" cy="9552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>112000</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>93276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA47CEF-1FDD-4191-B1ED-06890C30EF09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="36456257"/>
+          <a:ext cx="18400000" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E6E744-BDE4-4C57-B44B-2B63417DD7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741229" y="35041114"/>
+          <a:ext cx="8349342" cy="587829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616708C2-7A02-495E-93FD-9E833A7ECADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8545286" y="35628943"/>
+          <a:ext cx="4370614" cy="1273628"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>84114</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>113143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A31B66-FF5D-4C7C-9FD2-28E918ACCBDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="25900380"/>
+          <a:ext cx="12885714" cy="9257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB8FE3C-AE94-4E66-A179-2F5C75E3BC85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6683829" y="34522954"/>
+          <a:ext cx="8349342" cy="581298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5946C4FB-D3E4-4666-A997-DDF6F049E55C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6487886" y="35104252"/>
+          <a:ext cx="4370614" cy="1258388"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>320691</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33B3ABE-DB39-46BC-9DA2-6CA072DAA0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1264920" y="1226820"/>
+          <a:ext cx="10028571" cy="8390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>196872</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>48656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DC7831-42D9-4696-A148-2BFEB42A4DE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798320" y="10363200"/>
+          <a:ext cx="9980952" cy="6990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>608152</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>94324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D034A91B-4A1E-42DA-9A8E-5763575E9BA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="18036540"/>
+          <a:ext cx="11580952" cy="7409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>17143</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>81059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9659040-CE19-4016-A49A-2FCD00EA0B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="36141660"/>
+          <a:ext cx="15257143" cy="6847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,7 +2263,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -674,25 +2308,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C67678-8502-4F56-92CA-4301967AA661}">
-  <dimension ref="B3:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -702,132 +2343,719 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C114"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B175" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="5"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="5"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="5"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B203" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>6</v>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F068EB87-4951-4A2F-9080-AD29DB2810C0}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{8AA679B9-AC31-402A-AC9F-4147D56F1D4E}"/>
+    <hyperlink ref="B203" r:id="rId1" xr:uid="{F068EB87-4951-4A2F-9080-AD29DB2810C0}"/>
+    <hyperlink ref="B204" r:id="rId2" xr:uid="{8AA679B9-AC31-402A-AC9F-4147D56F1D4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A55F6-5C61-4F76-9E9A-7DCF89CDA5D1}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B102" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" t="s">
+        <v>93</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B103" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B104" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B105" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B106" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A100" r:id="rId1" xr:uid="{E7E9C019-5C69-4DA4-B8AD-E707EBD79631}"/>
+    <hyperlink ref="B102" r:id="rId2" display="https://api.qunitjs.com/assert/async" xr:uid="{8AB93991-365C-40D0-9F22-36D8448FF14D}"/>
+    <hyperlink ref="B103" r:id="rId3" display="https://api.qunitjs.com/assert/deepEqual" xr:uid="{4CA9B996-8AC2-4DB3-B42B-2BD830D246AF}"/>
+    <hyperlink ref="B104" r:id="rId4" display="https://api.qunitjs.com/assert/equal" xr:uid="{0C704770-9DDA-44E1-BB40-945197684291}"/>
+    <hyperlink ref="B105" r:id="rId5" display="https://api.qunitjs.com/assert/expect" xr:uid="{8FF0E873-D4CA-4731-BA3A-E0265704D78E}"/>
+    <hyperlink ref="M102" r:id="rId6" xr:uid="{FD1ABC07-8920-4FA5-8A5B-4A52723EFAE6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D2F625-4384-4A52-A834-E2FBFF61C9CD}">
+  <dimension ref="A2:B196"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E7E9C019-5C69-4DA4-B8AD-E707EBD79631}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38ED63E-C84D-4814-97F1-CC7E32A4016F}">
+  <dimension ref="A2:B196"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>